--- a/AMAT.xlsx
+++ b/AMAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81790C63-822B-4B77-A388-3BF2D1E75663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EE1569-01C8-43B1-A0DB-88A0D813F1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35400" yWindow="2280" windowWidth="29220" windowHeight="17160" activeTab="1" xr2:uid="{8FCE8A41-16C1-4EF7-92D6-76FBB8A04D3E}"/>
+    <workbookView xWindow="42170" yWindow="2090" windowWidth="31080" windowHeight="16810" xr2:uid="{8FCE8A41-16C1-4EF7-92D6-76FBB8A04D3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -339,12 +339,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -354,8 +354,6 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,16 +443,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>32658</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>27774</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>32658</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>27774</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>161192</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -469,8 +467,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4708072" y="0"/>
-          <a:ext cx="0" cy="10450286"/>
+          <a:off x="6475466" y="0"/>
+          <a:ext cx="0" cy="12275038"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -495,13 +493,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>4053</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>24319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>4053</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>60403</xdr:rowOff>
@@ -865,14 +863,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2869B30-572B-4034-92C9-B307A12C2221}">
   <dimension ref="B2:L45"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>49</v>
       </c>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>145.4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>51</v>
       </c>
@@ -897,16 +897,16 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>118128.8994446</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+        <v>185236.513572</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>52</v>
       </c>
@@ -920,7 +920,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>53</v>
       </c>
@@ -934,7 +934,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>54</v>
       </c>
@@ -943,15 +943,15 @@
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>113489.8994446</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+        <v>180597.513572</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>56</v>
       </c>
@@ -962,82 +962,82 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>84</v>
       </c>
@@ -1050,358 +1050,380 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FCC328-206B-416D-93E7-7AB15E2A4BC1}">
-  <dimension ref="A1:AO71"/>
+  <dimension ref="A1:AR71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M9" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE14" sqref="AE14"/>
+      <selection pane="bottomRight" activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="7" max="10" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="4">
         <v>45319</v>
       </c>
+      <c r="E2" s="4">
+        <v>45501</v>
+      </c>
       <c r="G2" s="4">
         <v>45683</v>
       </c>
-      <c r="J2" s="6">
-        <f t="shared" ref="J2:N2" si="0">+K2-1</f>
+      <c r="H2" s="4">
+        <f>+G2+90</f>
+        <v>45773</v>
+      </c>
+      <c r="I2" s="4">
+        <v>45865</v>
+      </c>
+      <c r="M2" s="6">
+        <f t="shared" ref="M2:P2" si="0">+N2-1</f>
         <v>2005</v>
       </c>
-      <c r="K2" s="6">
+      <c r="N2" s="6">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="L2" s="6">
+      <c r="O2" s="6">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="M2" s="6">
+      <c r="P2" s="6">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="N2" s="6">
-        <f t="shared" ref="N2:R2" si="1">+O2-1</f>
+      <c r="Q2" s="6">
+        <f t="shared" ref="Q2:T2" si="1">+R2-1</f>
         <v>2009</v>
       </c>
-      <c r="O2" s="6">
+      <c r="R2" s="6">
         <f t="shared" si="1"/>
         <v>2010</v>
       </c>
-      <c r="P2" s="6">
+      <c r="S2" s="6">
         <f t="shared" si="1"/>
         <v>2011</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="T2" s="6">
         <f t="shared" si="1"/>
         <v>2012</v>
       </c>
-      <c r="R2" s="6">
-        <f>+S2-1</f>
+      <c r="U2" s="6">
+        <f>+V2-1</f>
         <v>2013</v>
       </c>
-      <c r="S2" s="6">
+      <c r="V2" s="6">
         <v>2014</v>
       </c>
-      <c r="T2" s="6">
+      <c r="W2" s="6">
         <v>2015</v>
       </c>
-      <c r="U2" s="6">
+      <c r="X2" s="6">
         <v>2016</v>
       </c>
-      <c r="V2" s="6">
+      <c r="Y2" s="6">
         <v>2017</v>
       </c>
-      <c r="W2" s="6">
+      <c r="Z2" s="6">
         <v>2018</v>
       </c>
-      <c r="X2" s="6">
+      <c r="AA2" s="6">
         <v>2019</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="AB2" s="6">
         <v>2020</v>
       </c>
-      <c r="Z2" s="6">
+      <c r="AC2" s="6">
         <v>2021</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AD2" s="6">
         <v>2022</v>
       </c>
-      <c r="AB2" s="6">
+      <c r="AE2" s="6">
         <v>2023</v>
       </c>
-      <c r="AC2" s="6">
+      <c r="AF2" s="6">
         <v>2024</v>
       </c>
-      <c r="AD2" s="6">
-        <f>+AC2+1</f>
+      <c r="AG2" s="6">
+        <f t="shared" ref="AG2:AR2" si="2">+AF2+1</f>
         <v>2025</v>
       </c>
-      <c r="AE2" s="6">
-        <f>+AD2+1</f>
+      <c r="AH2" s="6">
+        <f t="shared" si="2"/>
         <v>2026</v>
       </c>
-      <c r="AF2" s="6">
-        <f>+AE2+1</f>
+      <c r="AI2" s="6">
+        <f t="shared" si="2"/>
         <v>2027</v>
       </c>
-      <c r="AG2" s="6">
-        <f>+AF2+1</f>
+      <c r="AJ2" s="6">
+        <f t="shared" si="2"/>
         <v>2028</v>
       </c>
-      <c r="AH2" s="6">
-        <f>+AG2+1</f>
+      <c r="AK2" s="6">
+        <f t="shared" si="2"/>
         <v>2029</v>
       </c>
-      <c r="AI2" s="6">
-        <f>+AH2+1</f>
+      <c r="AL2" s="6">
+        <f t="shared" si="2"/>
         <v>2030</v>
       </c>
-      <c r="AJ2" s="6">
-        <f>+AI2+1</f>
+      <c r="AM2" s="6">
+        <f t="shared" si="2"/>
         <v>2031</v>
       </c>
-      <c r="AK2" s="6">
-        <f>+AJ2+1</f>
+      <c r="AN2" s="6">
+        <f t="shared" si="2"/>
         <v>2032</v>
       </c>
-      <c r="AL2" s="6">
-        <f>+AK2+1</f>
+      <c r="AO2" s="6">
+        <f t="shared" si="2"/>
         <v>2033</v>
       </c>
-      <c r="AM2" s="6">
-        <f>+AL2+1</f>
+      <c r="AP2" s="6">
+        <f t="shared" si="2"/>
         <v>2034</v>
       </c>
-      <c r="AN2" s="6">
-        <f>+AM2+1</f>
+      <c r="AQ2" s="6">
+        <f t="shared" si="2"/>
         <v>2035</v>
       </c>
-      <c r="AO2" s="6">
-        <f>+AN2+1</f>
+      <c r="AR2" s="6">
+        <f t="shared" si="2"/>
         <v>2036</v>
       </c>
     </row>
-    <row r="3" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AE3" s="2">
         <v>7247</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AF3" s="2">
         <v>10117</v>
       </c>
     </row>
-    <row r="4" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AE4" s="2">
         <v>4609</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AF4" s="2">
         <v>4493</v>
       </c>
     </row>
-    <row r="5" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AE5" s="2">
         <v>5670</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AF5" s="2">
         <v>4010</v>
       </c>
     </row>
-    <row r="6" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AE6" s="2">
         <v>4006</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AF6" s="2">
         <v>3818</v>
       </c>
     </row>
-    <row r="7" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-    </row>
-    <row r="8" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+    </row>
+    <row r="8" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AE8" s="2">
         <v>11127</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AF8" s="2">
         <v>8259</v>
       </c>
     </row>
-    <row r="9" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AE9" s="2">
         <v>5162</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AF9" s="2">
         <v>6767</v>
       </c>
     </row>
-    <row r="10" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AE11" s="2">
         <v>19698</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AF11" s="2">
         <v>19911</v>
       </c>
     </row>
-    <row r="12" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AE12" s="2">
         <v>5732</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AF12" s="2">
         <v>6225</v>
       </c>
     </row>
-    <row r="13" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AB13" s="2">
+      <c r="AE13" s="2">
         <f>868+219</f>
         <v>1087</v>
       </c>
-      <c r="AC13" s="2">
+      <c r="AF13" s="2">
         <f>885+155</f>
         <v>1040</v>
       </c>
     </row>
-    <row r="14" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="7">
         <v>6707</v>
       </c>
+      <c r="E14" s="7">
+        <v>6778</v>
+      </c>
       <c r="G14" s="7">
         <v>7166</v>
       </c>
-      <c r="K14" s="7">
+      <c r="I14" s="7">
+        <v>7302</v>
+      </c>
+      <c r="N14" s="7">
         <v>9167.0139999999992</v>
       </c>
-      <c r="L14" s="7">
+      <c r="O14" s="7">
         <v>9734.8559999999998</v>
       </c>
-      <c r="M14" s="7">
+      <c r="P14" s="7">
         <v>8129.24</v>
       </c>
-      <c r="N14" s="7">
+      <c r="Q14" s="7">
         <v>5014</v>
       </c>
-      <c r="O14" s="7">
+      <c r="R14" s="7">
         <v>9549</v>
       </c>
-      <c r="P14" s="7">
+      <c r="S14" s="7">
         <v>10517</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="T14" s="7">
         <v>8719</v>
       </c>
-      <c r="R14" s="7">
+      <c r="U14" s="7">
         <v>7509</v>
       </c>
-      <c r="S14" s="7">
+      <c r="V14" s="7">
         <v>9072</v>
       </c>
-      <c r="T14" s="7">
+      <c r="W14" s="7">
         <v>9659</v>
       </c>
-      <c r="U14" s="7">
+      <c r="X14" s="7">
         <v>10825</v>
       </c>
-      <c r="V14" s="7">
+      <c r="Y14" s="7">
         <v>14537</v>
       </c>
-      <c r="W14" s="7">
+      <c r="Z14" s="7">
         <v>17253</v>
       </c>
-      <c r="X14" s="7">
+      <c r="AA14" s="7">
         <v>14608</v>
       </c>
-      <c r="Y14" s="7">
+      <c r="AB14" s="7">
         <v>17202</v>
       </c>
-      <c r="Z14" s="7">
+      <c r="AC14" s="7">
         <v>23063</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="AD14" s="7">
         <v>25785</v>
       </c>
-      <c r="AB14" s="7">
-        <f>SUM(AB11:AB13)</f>
+      <c r="AE14" s="7">
+        <f>SUM(AE11:AE13)</f>
         <v>26517</v>
       </c>
-      <c r="AC14" s="7">
-        <f>SUM(AC11:AC13)</f>
+      <c r="AF14" s="7">
+        <f>SUM(AF11:AF13)</f>
         <v>27176</v>
       </c>
     </row>
-    <row r="15" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="2">
         <v>3503</v>
       </c>
+      <c r="E15" s="2">
+        <v>3573</v>
+      </c>
       <c r="G15" s="2">
         <v>3670</v>
       </c>
-      <c r="X15" s="2">
+      <c r="I15" s="2">
+        <v>3740</v>
+      </c>
+      <c r="AA15" s="2">
         <v>8222</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="AB15" s="2">
         <v>9510</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="AC15" s="2">
         <v>12149</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AD15" s="2">
         <v>13792</v>
       </c>
-      <c r="AB15" s="2">
+      <c r="AE15" s="2">
         <v>14133</v>
       </c>
-      <c r="AC15" s="2">
+      <c r="AF15" s="2">
         <v>14279</v>
       </c>
     </row>
-    <row r="16" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1409,383 +1431,447 @@
         <f>+C14-C15</f>
         <v>3204</v>
       </c>
+      <c r="E16" s="2">
+        <f>+E14-E15</f>
+        <v>3205</v>
+      </c>
       <c r="G16" s="2">
         <f>+G14-G15</f>
         <v>3496</v>
       </c>
-      <c r="X16" s="2">
-        <f>+X14-X15</f>
+      <c r="I16" s="2">
+        <f>+I14-I15</f>
+        <v>3562</v>
+      </c>
+      <c r="AA16" s="2">
+        <f t="shared" ref="AA16:AF16" si="3">+AA14-AA15</f>
         <v>6386</v>
       </c>
-      <c r="Y16" s="2">
-        <f>+Y14-Y15</f>
+      <c r="AB16" s="2">
+        <f t="shared" si="3"/>
         <v>7692</v>
       </c>
-      <c r="Z16" s="2">
-        <f>+Z14-Z15</f>
+      <c r="AC16" s="2">
+        <f t="shared" si="3"/>
         <v>10914</v>
       </c>
-      <c r="AA16" s="2">
-        <f>+AA14-AA15</f>
+      <c r="AD16" s="2">
+        <f t="shared" si="3"/>
         <v>11993</v>
       </c>
-      <c r="AB16" s="2">
-        <f>+AB14-AB15</f>
+      <c r="AE16" s="2">
+        <f t="shared" si="3"/>
         <v>12384</v>
       </c>
-      <c r="AC16" s="2">
-        <f>+AC14-AC15</f>
+      <c r="AF16" s="2">
+        <f t="shared" si="3"/>
         <v>12897</v>
       </c>
     </row>
-    <row r="17" spans="2:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="s">
+    <row r="17" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="2">
         <v>754</v>
       </c>
-      <c r="G17" s="12">
+      <c r="E17" s="2">
+        <v>836</v>
+      </c>
+      <c r="G17" s="2">
         <v>859</v>
       </c>
-      <c r="X17" s="12">
+      <c r="I17" s="2">
+        <v>901</v>
+      </c>
+      <c r="AA17" s="2">
         <v>2054</v>
       </c>
-      <c r="Y17" s="12">
+      <c r="AB17" s="2">
         <v>2234</v>
       </c>
-      <c r="Z17" s="12">
+      <c r="AC17" s="2">
         <v>2485</v>
       </c>
-      <c r="AA17" s="12">
+      <c r="AD17" s="2">
         <v>2771</v>
       </c>
-      <c r="AB17" s="12">
+      <c r="AE17" s="2">
         <v>3102</v>
       </c>
-      <c r="AC17" s="12">
+      <c r="AF17" s="2">
         <v>3233</v>
       </c>
     </row>
-    <row r="18" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="2">
         <v>207</v>
       </c>
+      <c r="E18" s="2">
+        <v>205</v>
+      </c>
       <c r="G18" s="2">
         <v>206</v>
       </c>
-      <c r="X18" s="2">
+      <c r="I18" s="2">
+        <v>224</v>
+      </c>
+      <c r="AA18" s="2">
         <v>521</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="AB18" s="2">
         <v>526</v>
       </c>
-      <c r="Z18" s="2">
+      <c r="AC18" s="2">
         <v>609</v>
       </c>
-      <c r="AA18" s="2">
+      <c r="AD18" s="2">
         <v>703</v>
       </c>
-      <c r="AB18" s="2">
+      <c r="AE18" s="2">
         <v>776</v>
       </c>
-      <c r="AC18" s="2">
+      <c r="AF18" s="2">
         <v>836</v>
       </c>
     </row>
-    <row r="19" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="2">
         <v>276</v>
       </c>
+      <c r="E19" s="2">
+        <v>222</v>
+      </c>
       <c r="G19" s="2">
         <v>256</v>
       </c>
-      <c r="X19" s="2">
+      <c r="I19" s="2">
+        <v>204</v>
+      </c>
+      <c r="AA19" s="2">
         <v>461</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="AB19" s="2">
         <v>567</v>
       </c>
-      <c r="Z19" s="2">
+      <c r="AC19" s="2">
         <v>620</v>
       </c>
-      <c r="AA19" s="2">
+      <c r="AD19" s="2">
         <v>735</v>
       </c>
-      <c r="AB19" s="2">
+      <c r="AE19" s="2">
         <v>852</v>
       </c>
-      <c r="AC19" s="2">
+      <c r="AF19" s="2">
         <v>961</v>
       </c>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" ref="C20:F20" si="2">SUM(C17:C19)</f>
+        <f t="shared" ref="C20:F20" si="4">SUM(C17:C19)</f>
         <v>1237</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(E17:E19)</f>
+        <v>1263</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G20" s="2">
         <f>SUM(G17:G19)</f>
         <v>1321</v>
       </c>
-      <c r="X20" s="2">
-        <f t="shared" ref="X20:Z20" si="3">SUM(X17:X19)</f>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
+        <f>SUM(I17:I19)</f>
+        <v>1329</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="AA20" s="2">
+        <f t="shared" ref="AA20:AC20" si="5">SUM(AA17:AA19)</f>
         <v>3036</v>
       </c>
-      <c r="Y20" s="2">
-        <f t="shared" si="3"/>
+      <c r="AB20" s="2">
+        <f t="shared" si="5"/>
         <v>3327</v>
       </c>
-      <c r="Z20" s="2">
-        <f t="shared" si="3"/>
+      <c r="AC20" s="2">
+        <f t="shared" si="5"/>
         <v>3714</v>
       </c>
-      <c r="AA20" s="2">
-        <f>SUM(AA17:AA19)</f>
+      <c r="AD20" s="2">
+        <f>SUM(AD17:AD19)</f>
         <v>4209</v>
       </c>
-      <c r="AB20" s="2">
-        <f>SUM(AB17:AB19)</f>
+      <c r="AE20" s="2">
+        <f>SUM(AE17:AE19)</f>
         <v>4730</v>
       </c>
-      <c r="AC20" s="2">
-        <f>SUM(AC17:AC19)</f>
+      <c r="AF20" s="2">
+        <f>SUM(AF17:AF19)</f>
         <v>5030</v>
       </c>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" ref="C21:F21" si="4">C16-C20</f>
+        <f t="shared" ref="C21:F21" si="6">C16-C20</f>
         <v>1967</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>E16-E20</f>
+        <v>1942</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G21" s="2">
         <f>G16-G20</f>
         <v>2175</v>
       </c>
-      <c r="X21" s="2">
-        <f t="shared" ref="X21:Z21" si="5">X16-X20</f>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2">
+        <f>I16-I20</f>
+        <v>2233</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="AA21" s="2">
+        <f t="shared" ref="AA21:AC21" si="7">AA16-AA20</f>
         <v>3350</v>
       </c>
-      <c r="Y21" s="2">
-        <f t="shared" si="5"/>
+      <c r="AB21" s="2">
+        <f t="shared" si="7"/>
         <v>4365</v>
       </c>
-      <c r="Z21" s="2">
-        <f t="shared" si="5"/>
+      <c r="AC21" s="2">
+        <f t="shared" si="7"/>
         <v>7200</v>
       </c>
-      <c r="AA21" s="2">
-        <f>AA16-AA20</f>
+      <c r="AD21" s="2">
+        <f>AD16-AD20</f>
         <v>7784</v>
       </c>
-      <c r="AB21" s="2">
-        <f>AB16-AB20</f>
+      <c r="AE21" s="2">
+        <f>AE16-AE20</f>
         <v>7654</v>
       </c>
-      <c r="AC21" s="2">
-        <f>AC16-AC20</f>
+      <c r="AF21" s="2">
+        <f>AF16-AF20</f>
         <v>7867</v>
       </c>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="2">
         <v>-59</v>
       </c>
+      <c r="E22" s="2">
+        <v>-63</v>
+      </c>
       <c r="G22" s="2">
         <v>-64</v>
       </c>
-      <c r="X22">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2">
+        <v>66</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="AA22">
         <f>-237+156</f>
         <v>-81</v>
       </c>
-      <c r="Y22">
+      <c r="AB22">
         <f>-240+41</f>
         <v>-199</v>
       </c>
-      <c r="Z22">
+      <c r="AC22">
         <f>-236+118</f>
         <v>-118</v>
       </c>
-      <c r="AA22" s="2">
+      <c r="AD22" s="2">
         <f>-228+39</f>
         <v>-189</v>
       </c>
-      <c r="AB22" s="2">
+      <c r="AE22" s="2">
         <f>-238+300</f>
         <v>62</v>
       </c>
-      <c r="AC22" s="2">
+      <c r="AF22" s="2">
         <f>-247+532</f>
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" ref="C23:F23" si="6">+C21+C22</f>
+        <f t="shared" ref="C23:F23" si="8">+C21+C22</f>
         <v>1908</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>+E21+E22</f>
+        <v>1879</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G23" s="2">
         <f>+G21+G22</f>
         <v>2111</v>
       </c>
-      <c r="X23" s="2">
-        <f t="shared" ref="X23" si="7">+X21+X22</f>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2">
+        <f>+I21+I22</f>
+        <v>2299</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="AA23" s="2">
+        <f t="shared" ref="AA23" si="9">+AA21+AA22</f>
         <v>3269</v>
       </c>
-      <c r="Y23" s="2">
-        <f t="shared" ref="Y23" si="8">+Y21+Y22</f>
+      <c r="AB23" s="2">
+        <f t="shared" ref="AB23" si="10">+AB21+AB22</f>
         <v>4166</v>
       </c>
-      <c r="Z23" s="2">
-        <f t="shared" ref="Z23" si="9">+Z21+Z22</f>
+      <c r="AC23" s="2">
+        <f t="shared" ref="AC23" si="11">+AC21+AC22</f>
         <v>7082</v>
       </c>
-      <c r="AA23" s="2">
-        <f t="shared" ref="AA23:AC23" si="10">+AA21+AA22</f>
+      <c r="AD23" s="2">
+        <f t="shared" ref="AD23:AF23" si="12">+AD21+AD22</f>
         <v>7595</v>
       </c>
-      <c r="AB23" s="2">
-        <f t="shared" si="10"/>
+      <c r="AE23" s="2">
+        <f t="shared" si="12"/>
         <v>7716</v>
       </c>
-      <c r="AC23" s="2">
-        <f t="shared" si="10"/>
+      <c r="AF23" s="2">
+        <f t="shared" si="12"/>
         <v>8152</v>
       </c>
     </row>
-    <row r="24" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2">
         <v>284</v>
       </c>
+      <c r="E24" s="2">
+        <v>255</v>
+      </c>
       <c r="G24" s="2">
         <v>934</v>
       </c>
-      <c r="X24" s="2">
+      <c r="I24" s="2">
+        <v>784</v>
+      </c>
+      <c r="AA24" s="2">
         <v>563</v>
       </c>
-      <c r="Y24" s="2">
+      <c r="AB24" s="2">
         <v>547</v>
       </c>
-      <c r="Z24" s="2">
+      <c r="AC24" s="2">
         <v>883</v>
       </c>
-      <c r="AA24" s="2">
+      <c r="AD24" s="2">
         <v>1074</v>
       </c>
-      <c r="AB24" s="2">
+      <c r="AE24" s="2">
         <v>860</v>
       </c>
-      <c r="AC24" s="2">
+      <c r="AF24" s="2">
         <v>975</v>
       </c>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" ref="C25:F25" si="11">+C23-C24</f>
+        <f t="shared" ref="C25:F25" si="13">+C23-C24</f>
         <v>1624</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>+E23-E24</f>
+        <v>1624</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G25" s="2">
         <f>+G23-G24</f>
         <v>1177</v>
       </c>
-      <c r="X25" s="2">
-        <f t="shared" ref="X25" si="12">+X23-X24</f>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2">
+        <f>+I23-I24</f>
+        <v>1515</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="AA25" s="2">
+        <f t="shared" ref="AA25" si="14">+AA23-AA24</f>
         <v>2706</v>
       </c>
-      <c r="Y25" s="2">
-        <f t="shared" ref="Y25" si="13">+Y23-Y24</f>
+      <c r="AB25" s="2">
+        <f t="shared" ref="AB25" si="15">+AB23-AB24</f>
         <v>3619</v>
       </c>
-      <c r="Z25" s="2">
-        <f t="shared" ref="Z25" si="14">+Z23-Z24</f>
+      <c r="AC25" s="2">
+        <f t="shared" ref="AC25" si="16">+AC23-AC24</f>
         <v>6199</v>
       </c>
-      <c r="AA25" s="2">
-        <f t="shared" ref="AA25:AC25" si="15">+AA23-AA24</f>
+      <c r="AD25" s="2">
+        <f t="shared" ref="AD25:AF25" si="17">+AD23-AD24</f>
         <v>6521</v>
       </c>
-      <c r="AB25" s="2">
-        <f t="shared" si="15"/>
+      <c r="AE25" s="2">
+        <f t="shared" si="17"/>
         <v>6856</v>
       </c>
-      <c r="AC25" s="2">
-        <f t="shared" si="15"/>
+      <c r="AF25" s="2">
+        <f t="shared" si="17"/>
         <v>7177</v>
       </c>
     </row>
-    <row r="26" spans="2:29" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:32" s="10" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>22</v>
       </c>
@@ -1794,47 +1880,53 @@
         <v>1.94026284348865</v>
       </c>
       <c r="D26" s="9" t="e">
-        <f t="shared" ref="D26:G26" si="16">+D25/D27</f>
+        <f t="shared" ref="D26:G26" si="18">+D25/D27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="9" t="e">
-        <f t="shared" si="16"/>
+      <c r="E26" s="9">
+        <f t="shared" ref="E26" si="19">+E25/E27</f>
+        <v>1.9495798319327731</v>
+      </c>
+      <c r="F26" s="9" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="9" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="G26" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.4371184371184371</v>
       </c>
-      <c r="X26" s="9">
-        <f t="shared" ref="X26:Z26" si="17">+X25/X27</f>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9">
+        <f t="shared" ref="I26" si="20">+I25/I27</f>
+        <v>1.8890274314214464</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="AA26" s="9">
+        <f t="shared" ref="AA26:AC26" si="21">+AA25/AA27</f>
         <v>2.8634920634920635</v>
       </c>
-      <c r="Y26" s="9">
-        <f t="shared" si="17"/>
+      <c r="AB26" s="9">
+        <f t="shared" si="21"/>
         <v>3.9209100758396533</v>
       </c>
-      <c r="Z26" s="9">
-        <f t="shared" si="17"/>
+      <c r="AC26" s="9">
+        <f t="shared" si="21"/>
         <v>6.7453754080522303</v>
       </c>
-      <c r="AA26" s="9">
-        <f>+AA25/AA27</f>
+      <c r="AD26" s="9">
+        <f>+AD25/AD27</f>
         <v>7.4355758266818697</v>
       </c>
-      <c r="AB26" s="9">
-        <f>+AB25/AB27</f>
+      <c r="AE26" s="9">
+        <f>+AE25/AE27</f>
         <v>8.1136094674556212</v>
       </c>
-      <c r="AC26" s="9">
-        <f>+AC25/AC27</f>
+      <c r="AF26" s="9">
+        <f>+AF25/AF27</f>
         <v>8.6055155875299754</v>
       </c>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
@@ -1842,31 +1934,38 @@
         <v>837</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2">
+        <v>833</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
         <v>819</v>
       </c>
-      <c r="X27">
+      <c r="H27" s="2"/>
+      <c r="I27" s="2">
+        <v>802</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="AA27">
         <v>945</v>
       </c>
-      <c r="Y27">
+      <c r="AB27">
         <v>923</v>
       </c>
-      <c r="Z27">
+      <c r="AC27">
         <v>919</v>
       </c>
-      <c r="AA27">
+      <c r="AD27">
         <v>877</v>
       </c>
-      <c r="AB27">
+      <c r="AE27">
         <v>845</v>
       </c>
-      <c r="AC27">
+      <c r="AF27">
         <v>834</v>
       </c>
     </row>
-    <row r="29" spans="2:29" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:32" s="10" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>13</v>
       </c>
@@ -1874,90 +1973,99 @@
         <f>+G14/C14-1</f>
         <v>6.8435962427314756E-2</v>
       </c>
-      <c r="L29" s="11">
-        <f t="shared" ref="L29:T29" si="18">+L14/K14-1</f>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11">
+        <f>+I14/E14-1</f>
+        <v>7.730894069046923E-2</v>
+      </c>
+      <c r="J29" s="11"/>
+      <c r="O29" s="11">
+        <f t="shared" ref="O29:V29" si="22">+O14/N14-1</f>
         <v>6.1944052883523559E-2</v>
       </c>
-      <c r="M29" s="11">
-        <f t="shared" si="18"/>
+      <c r="P29" s="11">
+        <f t="shared" si="22"/>
         <v>-0.16493474582469425</v>
       </c>
-      <c r="N29" s="11">
-        <f t="shared" si="18"/>
+      <c r="Q29" s="11">
+        <f t="shared" si="22"/>
         <v>-0.38321417500282928</v>
       </c>
-      <c r="O29" s="11">
-        <f t="shared" si="18"/>
+      <c r="R29" s="11">
+        <f t="shared" si="22"/>
         <v>0.90446749102512958</v>
       </c>
-      <c r="P29" s="11">
-        <f t="shared" si="18"/>
+      <c r="S29" s="11">
+        <f t="shared" si="22"/>
         <v>0.10137187140014658</v>
       </c>
-      <c r="Q29" s="11">
-        <f t="shared" si="18"/>
+      <c r="T29" s="11">
+        <f t="shared" si="22"/>
         <v>-0.17096130075116478</v>
       </c>
-      <c r="R29" s="11">
-        <f t="shared" si="18"/>
+      <c r="U29" s="11">
+        <f t="shared" si="22"/>
         <v>-0.13877738272737694</v>
       </c>
-      <c r="S29" s="11">
-        <f t="shared" si="18"/>
+      <c r="V29" s="11">
+        <f t="shared" si="22"/>
         <v>0.20815021973631631</v>
       </c>
-      <c r="T29" s="11">
-        <f t="shared" ref="T29:Y29" si="19">+T14/S14-1</f>
+      <c r="W29" s="11">
+        <f t="shared" ref="W29:AA29" si="23">+W14/V14-1</f>
         <v>6.4704585537918913E-2</v>
       </c>
-      <c r="U29" s="11">
-        <f t="shared" si="19"/>
+      <c r="X29" s="11">
+        <f t="shared" si="23"/>
         <v>0.12071643027228496</v>
       </c>
-      <c r="V29" s="11">
-        <f t="shared" si="19"/>
+      <c r="Y29" s="11">
+        <f t="shared" si="23"/>
         <v>0.34290993071593534</v>
       </c>
-      <c r="W29" s="11">
-        <f t="shared" si="19"/>
+      <c r="Z29" s="11">
+        <f t="shared" si="23"/>
         <v>0.18683359702827262</v>
       </c>
-      <c r="X29" s="11">
-        <f t="shared" si="19"/>
+      <c r="AA29" s="11">
+        <f t="shared" si="23"/>
         <v>-0.15330667130354136</v>
       </c>
-      <c r="Y29" s="11">
-        <f t="shared" ref="Y29:AB29" si="20">+Y14/X14-1</f>
+      <c r="AB29" s="11">
+        <f t="shared" ref="AB29:AD29" si="24">+AB14/AA14-1</f>
         <v>0.17757393209200445</v>
       </c>
-      <c r="Z29" s="11">
-        <f t="shared" si="20"/>
+      <c r="AC29" s="11">
+        <f t="shared" si="24"/>
         <v>0.34071619579118706</v>
       </c>
-      <c r="AA29" s="11">
-        <f t="shared" si="20"/>
+      <c r="AD29" s="11">
+        <f t="shared" si="24"/>
         <v>0.11802454147335562</v>
       </c>
-      <c r="AB29" s="13">
-        <f>+AB14/AA14-1</f>
+      <c r="AE29" s="3">
+        <f>+AE14/AD14-1</f>
         <v>2.8388598022105915E-2</v>
       </c>
-      <c r="AC29" s="13">
-        <f>+AC14/AB14-1</f>
+      <c r="AF29" s="3">
+        <f>+AF14/AE14-1</f>
         <v>2.4851981747558094E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>60</v>
       </c>
       <c r="G30" s="3"/>
-      <c r="AC30" s="3">
-        <f>+AC11/AB11-1</f>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="AF30" s="3">
+        <f>+AF11/AE11-1</f>
         <v>1.0813280536094982E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>14</v>
       </c>
@@ -1965,52 +2073,59 @@
         <f>+G16/G14</f>
         <v>0.487859335752163</v>
       </c>
-      <c r="S31" s="3">
-        <f t="shared" ref="S31:X31" si="21">+S16/S14</f>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3">
+        <f>+I16/I14</f>
+        <v>0.48781155847712954</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="V31" s="3">
+        <f t="shared" ref="V31:Z31" si="25">+V16/V14</f>
         <v>0</v>
       </c>
-      <c r="T31" s="3">
-        <f t="shared" si="21"/>
+      <c r="W31" s="3">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="U31" s="3">
-        <f t="shared" si="21"/>
+      <c r="X31" s="3">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="V31" s="3">
-        <f t="shared" si="21"/>
+      <c r="Y31" s="3">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="W31" s="3">
-        <f t="shared" si="21"/>
+      <c r="Z31" s="3">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="X31" s="3">
-        <f t="shared" ref="X31:AA31" si="22">+X16/X14</f>
+      <c r="AA31" s="3">
+        <f t="shared" ref="AA31:AC31" si="26">+AA16/AA14</f>
         <v>0.43715772179627599</v>
       </c>
-      <c r="Y31" s="3">
-        <f t="shared" si="22"/>
+      <c r="AB31" s="3">
+        <f t="shared" si="26"/>
         <v>0.44715730728985004</v>
       </c>
-      <c r="Z31" s="3">
-        <f t="shared" si="22"/>
+      <c r="AC31" s="3">
+        <f t="shared" si="26"/>
         <v>0.47322551272601138</v>
       </c>
-      <c r="AA31" s="3">
-        <f>+AA16/AA14</f>
+      <c r="AD31" s="3">
+        <f>+AD16/AD14</f>
         <v>0.46511537715726198</v>
       </c>
-      <c r="AB31" s="3">
-        <f>+AB16/AB14</f>
+      <c r="AE31" s="3">
+        <f>+AE16/AE14</f>
         <v>0.46702115623939361</v>
       </c>
-      <c r="AC31" s="3">
-        <f>+AC16/AC14</f>
+      <c r="AF31" s="3">
+        <f>+AF16/AF14</f>
         <v>0.47457315278186635</v>
       </c>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>15</v>
       </c>
@@ -2018,52 +2133,59 @@
         <f>+G21/G14</f>
         <v>0.30351660619592519</v>
       </c>
-      <c r="S32" s="3">
-        <f t="shared" ref="S32:X32" si="23">+S21/S14</f>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3">
+        <f>+I21/I14</f>
+        <v>0.30580662832100797</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="V32" s="3">
+        <f t="shared" ref="V32:Z32" si="27">+V21/V14</f>
         <v>0</v>
       </c>
-      <c r="T32" s="3">
-        <f t="shared" si="23"/>
+      <c r="W32" s="3">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U32" s="3">
-        <f t="shared" si="23"/>
+      <c r="X32" s="3">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="V32" s="3">
-        <f t="shared" si="23"/>
+      <c r="Y32" s="3">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="W32" s="3">
-        <f t="shared" si="23"/>
+      <c r="Z32" s="3">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="X32" s="3">
-        <f t="shared" ref="X32:AA32" si="24">+X21/X14</f>
+      <c r="AA32" s="3">
+        <f t="shared" ref="AA32:AC32" si="28">+AA21/AA14</f>
         <v>0.22932639649507119</v>
       </c>
-      <c r="Y32" s="3">
-        <f t="shared" si="24"/>
+      <c r="AB32" s="3">
+        <f t="shared" si="28"/>
         <v>0.25374956400418558</v>
       </c>
-      <c r="Z32" s="3">
-        <f t="shared" si="24"/>
+      <c r="AC32" s="3">
+        <f t="shared" si="28"/>
         <v>0.3121883536400295</v>
       </c>
-      <c r="AA32" s="3">
-        <f>+AA21/AA14</f>
+      <c r="AD32" s="3">
+        <f>+AD21/AD14</f>
         <v>0.30188093853015319</v>
       </c>
-      <c r="AB32" s="3">
-        <f>+AB21/AB14</f>
+      <c r="AE32" s="3">
+        <f>+AE21/AE14</f>
         <v>0.28864502017573634</v>
       </c>
-      <c r="AC32" s="3">
-        <f>+AC21/AC14</f>
+      <c r="AF32" s="3">
+        <f>+AF21/AF14</f>
         <v>0.28948336767736238</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>73</v>
       </c>
@@ -2075,8 +2197,17 @@
         <f>+G35-G44</f>
         <v>4639</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H34" s="2">
+        <f>+H35-H44</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <f>+I35-I44</f>
+        <v>4885</v>
+      </c>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
@@ -2088,8 +2219,12 @@
         <f>6264+1949+2686</f>
         <v>10899</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I35" s="2">
+        <f>5384+1630+4133</f>
+        <v>11147</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>24</v>
       </c>
@@ -2099,8 +2234,11 @@
       <c r="G36" s="2">
         <v>5998</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I36" s="2">
+        <v>5772</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>25</v>
       </c>
@@ -2110,8 +2248,11 @@
       <c r="G37" s="2">
         <v>5501</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I37" s="2">
+        <v>5807</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>26</v>
       </c>
@@ -2121,8 +2262,11 @@
       <c r="G38" s="2">
         <v>982</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I38" s="2">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>23</v>
       </c>
@@ -2132,8 +2276,11 @@
       <c r="G39" s="7">
         <v>3563</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I39" s="7">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>27</v>
       </c>
@@ -2145,8 +2292,12 @@
         <f>3768+237</f>
         <v>4005</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I40" s="2">
+        <f>3748+238</f>
+        <v>3986</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>28</v>
       </c>
@@ -2156,8 +2307,11 @@
       <c r="G41" s="2">
         <v>2390</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I41" s="2">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>29</v>
       </c>
@@ -2169,8 +2323,16 @@
         <f>SUM(G35:G41)</f>
         <v>33338</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H42" s="2">
+        <f>SUM(H35:H41)</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <f>SUM(I35:I41)</f>
+        <v>34211</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>4</v>
       </c>
@@ -2178,48 +2340,67 @@
         <f>799+5461</f>
         <v>6260</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I44" s="2">
+        <f>5463+799</f>
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G45" s="2">
         <v>4485</v>
       </c>
-    </row>
-    <row r="46" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I45" s="2">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G46" s="2">
         <v>2452</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I46" s="2">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G47" s="2">
         <v>684</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I47" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G48" s="2">
         <v>832</v>
       </c>
-    </row>
-    <row r="49" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I48" s="2">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="49" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G49" s="2">
         <v>18625</v>
       </c>
-    </row>
-    <row r="50" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I49" s="2">
+        <v>19504</v>
+      </c>
+    </row>
+    <row r="50" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2408,16 @@
         <f>SUM(G44:G49)</f>
         <v>33338</v>
       </c>
-    </row>
-    <row r="52" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="2">
+        <f>SUM(H44:H49)</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <f>SUM(I44:I49)</f>
+        <v>34211</v>
+      </c>
+    </row>
+    <row r="52" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>38</v>
       </c>
@@ -2236,61 +2425,69 @@
         <f>+G25</f>
         <v>1177</v>
       </c>
-      <c r="U52" s="2">
-        <f t="shared" ref="U52:X52" si="25">+U25</f>
+      <c r="H52" s="2">
+        <f>+H25</f>
         <v>0</v>
       </c>
-      <c r="V52" s="2">
-        <f t="shared" si="25"/>
+      <c r="I52" s="2">
+        <f>+I25</f>
+        <v>1515</v>
+      </c>
+      <c r="X52" s="2">
+        <f t="shared" ref="X52:Z52" si="29">+X25</f>
         <v>0</v>
       </c>
-      <c r="W52" s="2">
-        <f t="shared" si="25"/>
+      <c r="Y52" s="2">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="X52" s="2">
-        <f t="shared" ref="X52:AC52" si="26">+X25</f>
+      <c r="Z52" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA52" s="2">
+        <f t="shared" ref="AA52:AF52" si="30">+AA25</f>
         <v>2706</v>
       </c>
-      <c r="Y52" s="2">
-        <f t="shared" si="26"/>
+      <c r="AB52" s="2">
+        <f t="shared" si="30"/>
         <v>3619</v>
       </c>
-      <c r="Z52" s="2">
-        <f t="shared" si="26"/>
+      <c r="AC52" s="2">
+        <f t="shared" si="30"/>
         <v>6199</v>
       </c>
-      <c r="AA52" s="2">
-        <f t="shared" si="26"/>
+      <c r="AD52" s="2">
+        <f t="shared" si="30"/>
         <v>6521</v>
       </c>
-      <c r="AB52" s="2">
-        <f t="shared" si="26"/>
+      <c r="AE52" s="2">
+        <f t="shared" si="30"/>
         <v>6856</v>
       </c>
-      <c r="AC52" s="2">
-        <f t="shared" si="26"/>
+      <c r="AF52" s="2">
+        <f t="shared" si="30"/>
         <v>7177</v>
       </c>
     </row>
-    <row r="53" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G53" s="2">
         <v>1185</v>
       </c>
-      <c r="AA53" s="2">
+      <c r="AD53" s="2">
         <v>6525</v>
       </c>
-      <c r="AB53" s="2">
+      <c r="AE53" s="2">
         <v>6856</v>
       </c>
-      <c r="AC53" s="2">
+      <c r="AF53" s="2">
         <v>7177</v>
       </c>
     </row>
-    <row r="54" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>39</v>
       </c>
@@ -2298,7 +2495,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>40</v>
       </c>
@@ -2306,7 +2503,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="56" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>28</v>
       </c>
@@ -2314,7 +2511,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="57" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>34</v>
       </c>
@@ -2322,7 +2519,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>36</v>
       </c>
@@ -2331,7 +2528,7 @@
         <v>-1323</v>
       </c>
     </row>
-    <row r="59" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>35</v>
       </c>
@@ -2339,104 +2536,107 @@
         <f>SUM(G53:G58)</f>
         <v>925</v>
       </c>
-      <c r="K59" s="2">
+      <c r="N59" s="2">
         <v>1977.1179999999999</v>
       </c>
-      <c r="L59" s="2">
+      <c r="O59" s="2">
         <v>2209.2959999999998</v>
       </c>
-      <c r="M59" s="2">
+      <c r="P59" s="2">
         <v>1710.4680000000001</v>
       </c>
-      <c r="N59" s="2">
+      <c r="Q59" s="2">
         <v>332.66500000000002</v>
       </c>
-      <c r="O59" s="2">
+      <c r="R59" s="2">
         <v>1722.8530000000001</v>
       </c>
-      <c r="U59" s="2">
+      <c r="X59" s="2">
         <v>2566</v>
       </c>
-      <c r="V59" s="2">
+      <c r="Y59" s="2">
         <v>3789</v>
       </c>
-      <c r="W59" s="2">
+      <c r="Z59" s="2">
         <v>3787</v>
       </c>
-      <c r="X59" s="2">
+      <c r="AA59" s="2">
         <v>3247</v>
       </c>
-      <c r="Y59" s="2">
+      <c r="AB59" s="2">
         <v>3804</v>
       </c>
-      <c r="Z59" s="2">
+      <c r="AC59" s="2">
         <v>5442</v>
       </c>
-      <c r="AA59" s="2">
+      <c r="AD59" s="2">
         <v>5399</v>
       </c>
-      <c r="AB59" s="2">
+      <c r="AE59" s="2">
         <v>8700</v>
       </c>
-      <c r="AC59" s="2">
+      <c r="AF59" s="2">
         <v>8677</v>
       </c>
     </row>
-    <row r="60" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="AB60" s="2"/>
-      <c r="AC60" s="2"/>
-    </row>
-    <row r="61" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="2"/>
+    </row>
+    <row r="61" spans="2:32" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G61" s="7">
         <v>-381</v>
       </c>
-      <c r="K61" s="2">
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="N61" s="2">
         <v>-179.482</v>
       </c>
-      <c r="L61" s="2">
+      <c r="O61" s="2">
         <v>-264.78399999999999</v>
       </c>
-      <c r="M61" s="2">
+      <c r="P61" s="2">
         <v>-287.90600000000001</v>
       </c>
-      <c r="N61" s="2">
+      <c r="Q61" s="2">
         <v>-248.42699999999999</v>
       </c>
-      <c r="O61" s="2">
+      <c r="R61" s="2">
         <v>-169.08099999999999</v>
       </c>
-      <c r="U61" s="2">
+      <c r="X61" s="2">
         <v>-253</v>
       </c>
-      <c r="V61" s="2">
+      <c r="Y61" s="2">
         <v>-345</v>
       </c>
-      <c r="W61" s="2">
+      <c r="Z61" s="2">
         <v>-622</v>
       </c>
-      <c r="X61" s="2">
+      <c r="AA61" s="2">
         <v>-441</v>
       </c>
-      <c r="Y61" s="2">
+      <c r="AB61" s="2">
         <v>-422</v>
       </c>
-      <c r="Z61" s="2">
+      <c r="AC61" s="2">
         <v>-668</v>
       </c>
-      <c r="AA61" s="2">
+      <c r="AD61" s="2">
         <v>-787</v>
       </c>
-      <c r="AB61" s="2">
+      <c r="AE61" s="2">
         <v>-1106</v>
       </c>
-      <c r="AC61" s="2">
+      <c r="AF61" s="2">
         <v>-1190</v>
       </c>
     </row>
-    <row r="62" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>43</v>
       </c>
@@ -2444,7 +2644,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="63" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>44</v>
       </c>
@@ -2453,7 +2653,7 @@
         <v>-488</v>
       </c>
     </row>
-    <row r="64" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>41</v>
       </c>
@@ -2462,7 +2662,7 @@
         <v>-897</v>
       </c>
     </row>
-    <row r="66" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>45</v>
       </c>
@@ -2470,7 +2670,7 @@
         <v>-1318</v>
       </c>
     </row>
-    <row r="67" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>47</v>
       </c>
@@ -2478,7 +2678,7 @@
         <v>-142</v>
       </c>
     </row>
-    <row r="68" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>48</v>
       </c>
@@ -2486,7 +2686,7 @@
         <v>-326</v>
       </c>
     </row>
-    <row r="69" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>46</v>
       </c>
@@ -2495,64 +2695,64 @@
         <v>-1786</v>
       </c>
     </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K71" s="12">
-        <f t="shared" ref="K71:O71" si="27">+K59+K61</f>
+      <c r="N71" s="2">
+        <f t="shared" ref="N71:R71" si="31">+N59+N61</f>
         <v>1797.636</v>
       </c>
-      <c r="L71" s="12">
-        <f t="shared" si="27"/>
+      <c r="O71" s="2">
+        <f t="shared" si="31"/>
         <v>1944.5119999999997</v>
       </c>
-      <c r="M71" s="12">
-        <f t="shared" si="27"/>
+      <c r="P71" s="2">
+        <f t="shared" si="31"/>
         <v>1422.5620000000001</v>
       </c>
-      <c r="N71" s="12">
-        <f t="shared" si="27"/>
+      <c r="Q71" s="2">
+        <f t="shared" si="31"/>
         <v>84.238000000000028</v>
       </c>
-      <c r="O71" s="12">
-        <f t="shared" si="27"/>
+      <c r="R71" s="2">
+        <f t="shared" si="31"/>
         <v>1553.7720000000002</v>
       </c>
-      <c r="U71" s="2">
-        <f t="shared" ref="U71:X71" si="28">+U59+U61</f>
+      <c r="X71" s="2">
+        <f t="shared" ref="X71:Z71" si="32">+X59+X61</f>
         <v>2313</v>
       </c>
-      <c r="V71" s="2">
-        <f t="shared" si="28"/>
+      <c r="Y71" s="2">
+        <f t="shared" si="32"/>
         <v>3444</v>
       </c>
-      <c r="W71" s="2">
-        <f t="shared" si="28"/>
+      <c r="Z71" s="2">
+        <f t="shared" si="32"/>
         <v>3165</v>
       </c>
-      <c r="X71" s="2">
-        <f>+X59+X61</f>
+      <c r="AA71" s="2">
+        <f t="shared" ref="AA71:AF71" si="33">+AA59+AA61</f>
         <v>2806</v>
       </c>
-      <c r="Y71" s="2">
-        <f>+Y59+Y61</f>
+      <c r="AB71" s="2">
+        <f t="shared" si="33"/>
         <v>3382</v>
       </c>
-      <c r="Z71" s="2">
-        <f>+Z59+Z61</f>
+      <c r="AC71" s="2">
+        <f t="shared" si="33"/>
         <v>4774</v>
       </c>
-      <c r="AA71" s="2">
-        <f>+AA59+AA61</f>
+      <c r="AD71" s="2">
+        <f t="shared" si="33"/>
         <v>4612</v>
       </c>
-      <c r="AB71" s="2">
-        <f>+AB59+AB61</f>
+      <c r="AE71" s="2">
+        <f t="shared" si="33"/>
         <v>7594</v>
       </c>
-      <c r="AC71" s="2">
-        <f>+AC59+AC61</f>
+      <c r="AF71" s="2">
+        <f t="shared" si="33"/>
         <v>7487</v>
       </c>
     </row>
